--- a/other/設計書.xlsx
+++ b/other/設計書.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evenosche\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9ACD46-45F1-45FD-8DE0-DCEA5E3CD500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54045A16-EDEC-4A15-8179-7ECCBC90F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64BA5883-9820-4612-B182-4514B46564CA}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{64BA5883-9820-4612-B182-4514B46564CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>イベント</t>
     <phoneticPr fontId="1"/>
@@ -130,12 +132,128 @@
     <t>n</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>e_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_about</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_deadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_start_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_end_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_high_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_nomal_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾脱出</t>
+    <rPh sb="0" eb="4">
+      <t>バクダンダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文です</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ct_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object CandidateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"candidate"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object Candidate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"candidate_time"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object Event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"info"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"candidates"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$event_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,16 +285,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -273,13 +406,279 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +717,123 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E258B5E-D2EA-4373-B2C9-69045EC94C3A}">
   <dimension ref="C3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -915,4 +1431,1114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF21455-2048-4339-9D49-C2EBF5A949CA}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>20220425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>20220426</v>
+      </c>
+      <c r="G2">
+        <v>20220526</v>
+      </c>
+      <c r="H2">
+        <v>3200</v>
+      </c>
+      <c r="I2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>20220101</v>
+      </c>
+      <c r="D6">
+        <v>3200</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>20220101</v>
+      </c>
+      <c r="D10">
+        <v>3200</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1DDF5F-DA88-4394-AECB-1F36338597AA}">
+  <dimension ref="A2:P50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:P50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="0.8984375" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="0.796875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="0.796875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="0.796875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="19.8984375" customWidth="1"/>
+    <col min="12" max="12" width="0.796875" customWidth="1"/>
+    <col min="13" max="15" width="0.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="19"/>
+      <c r="B9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="19"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="19"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="19"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="19"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="19"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="19"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="19"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="43">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="19"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="50">
+        <v>1</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="19"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="50">
+        <v>2</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="50">
+        <v>3</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="19"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="19"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="47">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="19"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="19"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="19"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="19"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="43">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="19"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="50">
+        <v>1</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="19"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="50">
+        <v>2</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="19"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="50">
+        <v>3</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="19"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="19"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:16" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="19"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="19"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="47">
+        <v>2</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="19"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="19"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="19"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="19"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="43">
+        <v>0</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="19"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="50">
+        <v>1</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="19"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="50">
+        <v>2</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="19"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="50">
+        <v>3</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="19"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="19"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="19"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:16" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="19"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="19"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="19"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="D11:D48"/>
+    <mergeCell ref="B9:B49"/>
+    <mergeCell ref="F36:F47"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="F24:F35"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H28:H33"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/other/設計書.xlsx
+++ b/other/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evenosche\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54045A16-EDEC-4A15-8179-7ECCBC90F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB9CEC-0FD1-46EB-AB78-3D90FDC38639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{64BA5883-9820-4612-B182-4514B46564CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64BA5883-9820-4612-B182-4514B46564CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>イベント</t>
     <phoneticPr fontId="1"/>
@@ -248,12 +248,80 @@
     <t>$event_data</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催開始日時</t>
+    <rPh sb="0" eb="2">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カイシニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催終了日時</t>
+    <rPh sb="0" eb="4">
+      <t>カイサイシュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常価格</t>
+    <rPh sb="0" eb="4">
+      <t>ツウジョウカカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイシーズン価格</t>
+    <rPh sb="6" eb="8">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補時間</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補時間id</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時刻</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,25 +338,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -309,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -368,45 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -672,13 +692,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,21 +736,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -724,116 +753,137 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,23 +961,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="コネクタ: カギ線 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8C2E66-6877-4039-BD4F-2489155DDE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6179820" y="810260"/>
+          <a:ext cx="767080" cy="81280"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1102360</xdr:colOff>
+      <xdr:colOff>1094740</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>756920</xdr:colOff>
+      <xdr:colOff>751840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE98695F-2375-4620-A9C7-802E8EBD408C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB617B1-EB75-4E6B-84B8-FE2C9CF4B9CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,8 +1040,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4312920" y="797560"/>
-          <a:ext cx="762000" cy="254000"/>
+          <a:off x="4333240" y="792480"/>
+          <a:ext cx="762000" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -967,31 +1072,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="コネクタ: カギ線 4">
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8C2E66-6877-4039-BD4F-2489155DDE9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0595E59C-1A13-49C6-881A-BD1B08F1C60B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6197600" y="812800"/>
-          <a:ext cx="756920" cy="238760"/>
+        <a:xfrm>
+          <a:off x="6215380" y="792480"/>
+          <a:ext cx="762000" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1319,113 +1424,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E258B5E-D2EA-4373-B2C9-69045EC94C3A}">
-  <dimension ref="C3:I9"/>
+  <dimension ref="C3:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:11" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="47"/>
+      <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="3:11" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C9" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C10" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C11" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1DDF5F-DA88-4394-AECB-1F36338597AA}">
   <dimension ref="A2:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:P50"/>
+    <sheetView topLeftCell="A25" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1621,906 +1768,906 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="19"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="43" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="19"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="44" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="19"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40">
+      <c r="A12" s="14"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="42">
         <v>0</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="19"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="43" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="19"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="41" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="43">
+      <c r="I16" s="12"/>
+      <c r="J16" s="33">
         <v>0</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="19"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="50">
+      <c r="A17" s="14"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="36">
         <v>1</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="19"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="50">
+      <c r="A18" s="14"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="36">
         <v>2</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="19"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="50">
+      <c r="A19" s="14"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="36">
         <v>3</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="19"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="50" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="19"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="51" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="19"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="19"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="47">
+      <c r="A24" s="14"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="45">
         <v>1</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="19"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="43" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="19"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="19"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="19"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="19"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="41" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="43">
+      <c r="I28" s="12"/>
+      <c r="J28" s="33">
         <v>0</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="19"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="50">
+      <c r="A29" s="14"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="36">
         <v>1</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="19"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="50">
+      <c r="A30" s="14"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="36">
         <v>2</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="19"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="50">
+      <c r="A31" s="14"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="36">
         <v>3</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="19"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="50" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="19"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="51" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="19"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="19"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="46"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="19"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="47">
+      <c r="A36" s="14"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="45">
         <v>2</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="19"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="43" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="19"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="19"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="19"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="19"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="41" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="43">
+      <c r="I40" s="12"/>
+      <c r="J40" s="33">
         <v>0</v>
       </c>
-      <c r="K40" s="32" t="s">
+      <c r="K40" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="19"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="50">
+      <c r="A41" s="14"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="36">
         <v>1</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="19"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="19"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="50">
+      <c r="A42" s="14"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="36">
         <v>2</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="19"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="19"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="50">
+      <c r="A43" s="14"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="36">
         <v>3</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="19"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="19"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="50" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="19"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="19"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="51" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="19"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="19"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="19"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:16" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="19"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="19"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="19"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="19"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/other/設計書.xlsx
+++ b/other/設計書.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evenosche\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB9CEC-0FD1-46EB-AB78-3D90FDC38639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421764D-F5EC-4331-87E8-1F204757542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64BA5883-9820-4612-B182-4514B46564CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{64BA5883-9820-4612-B182-4514B46564CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="-1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>イベント</t>
     <phoneticPr fontId="1"/>
@@ -314,6 +316,10 @@
     <rPh sb="0" eb="4">
       <t>カイシジコク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"count"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -368,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -716,13 +722,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +899,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,26 +956,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E258B5E-D2EA-4373-B2C9-69045EC94C3A}">
   <dimension ref="C3:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1462,7 +1572,7 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="43" t="s">
         <v>14</v>
       </c>
       <c r="J3">
@@ -1491,7 +1601,7 @@
       <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="44" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
@@ -1511,7 +1621,7 @@
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="45" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1528,7 +1638,7 @@
       <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="46" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1542,7 +1652,7 @@
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="42"/>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1553,22 +1663,22 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="48" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1747,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1DDF5F-DA88-4394-AECB-1F36338597AA}">
   <dimension ref="A2:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A13" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1811,7 +1921,7 @@
     </row>
     <row r="9" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="27"/>
@@ -1831,31 +1941,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="32"/>
       <c r="D10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="24"/>
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="14"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="51" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10"/>
@@ -1873,11 +1983,11 @@
     </row>
     <row r="12" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="42">
+      <c r="F12" s="53">
         <v>0</v>
       </c>
       <c r="G12" s="27"/>
@@ -1893,20 +2003,20 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="40"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="22"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -1915,11 +2025,11 @@
     </row>
     <row r="14" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="40"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="32"/>
       <c r="H14" s="34"/>
       <c r="I14" s="11"/>
@@ -1933,11 +2043,11 @@
     </row>
     <row r="15" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="14"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="40"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="43"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="32"/>
       <c r="H15" s="35"/>
       <c r="I15" s="12"/>
@@ -1951,13 +2061,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
-      <c r="B16" s="43"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="40"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="54" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="12"/>
@@ -1975,13 +2085,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
-      <c r="B17" s="43"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="40"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="12"/>
       <c r="J17" s="36">
         <v>1</v>
@@ -1997,13 +2107,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="40"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="12"/>
       <c r="J18" s="36">
         <v>2</v>
@@ -2019,13 +2129,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="40"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="43"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="12"/>
       <c r="J19" s="36">
         <v>3</v>
@@ -2041,13 +2151,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="40"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="43"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="12"/>
       <c r="J20" s="36" t="s">
         <v>34</v>
@@ -2063,13 +2173,13 @@
     </row>
     <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="14"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="43"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="12"/>
       <c r="J21" s="37" t="s">
         <v>15</v>
@@ -2085,11 +2195,11 @@
     </row>
     <row r="22" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14"/>
-      <c r="B22" s="43"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="40"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="32"/>
       <c r="H22" s="19"/>
       <c r="I22" s="20"/>
@@ -2103,11 +2213,11 @@
     </row>
     <row r="23" spans="1:16" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="40"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -2121,11 +2231,11 @@
     </row>
     <row r="24" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="14"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="40"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="45">
+      <c r="F24" s="56">
         <v>1</v>
       </c>
       <c r="G24" s="10"/>
@@ -2141,20 +2251,20 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
-      <c r="B25" s="43"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="40"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="32"/>
       <c r="H25" s="33" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="38"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="22"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2163,11 +2273,11 @@
     </row>
     <row r="26" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="40"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="32"/>
       <c r="H26" s="34"/>
       <c r="I26" s="11"/>
@@ -2181,11 +2291,11 @@
     </row>
     <row r="27" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="14"/>
-      <c r="B27" s="43"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="32"/>
       <c r="H27" s="35"/>
       <c r="I27" s="12"/>
@@ -2199,13 +2309,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="40"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="32"/>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="54" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="12"/>
@@ -2223,13 +2333,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
-      <c r="B29" s="43"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="40"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="32"/>
-      <c r="H29" s="43"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="12"/>
       <c r="J29" s="36">
         <v>1</v>
@@ -2245,13 +2355,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
-      <c r="B30" s="43"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="40"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="43"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="12"/>
       <c r="J30" s="36">
         <v>2</v>
@@ -2267,13 +2377,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
-      <c r="B31" s="43"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="40"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="43"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="12"/>
       <c r="J31" s="36">
         <v>3</v>
@@ -2289,13 +2399,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
-      <c r="B32" s="43"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="40"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="43"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="32"/>
-      <c r="H32" s="43"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="12"/>
       <c r="J32" s="36" t="s">
         <v>34</v>
@@ -2311,13 +2421,13 @@
     </row>
     <row r="33" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="14"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="40"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="43"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="43"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="12"/>
       <c r="J33" s="37" t="s">
         <v>15</v>
@@ -2333,11 +2443,11 @@
     </row>
     <row r="34" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="14"/>
-      <c r="B34" s="43"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="40"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="43"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="32"/>
       <c r="H34" s="19"/>
       <c r="I34" s="20"/>
@@ -2351,11 +2461,11 @@
     </row>
     <row r="35" spans="1:16" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14"/>
-      <c r="B35" s="43"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="40"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -2369,11 +2479,11 @@
     </row>
     <row r="36" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="14"/>
-      <c r="B36" s="43"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="40"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="45">
+      <c r="F36" s="56">
         <v>2</v>
       </c>
       <c r="G36" s="10"/>
@@ -2389,20 +2499,20 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="14"/>
-      <c r="B37" s="43"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="40"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="43"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33" t="s">
         <v>35</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="38"/>
+      <c r="K37" s="49"/>
       <c r="L37" s="22"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
@@ -2411,11 +2521,11 @@
     </row>
     <row r="38" spans="1:16" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="40"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="43"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="32"/>
       <c r="H38" s="34"/>
       <c r="I38" s="11"/>
@@ -2429,11 +2539,11 @@
     </row>
     <row r="39" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="14"/>
-      <c r="B39" s="43"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="40"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="43"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="32"/>
       <c r="H39" s="35"/>
       <c r="I39" s="12"/>
@@ -2447,13 +2557,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="14"/>
-      <c r="B40" s="43"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="40"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="43"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="32"/>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="54" t="s">
         <v>37</v>
       </c>
       <c r="I40" s="12"/>
@@ -2471,13 +2581,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="14"/>
-      <c r="B41" s="43"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="40"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="43"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="32"/>
-      <c r="H41" s="43"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="12"/>
       <c r="J41" s="36">
         <v>1</v>
@@ -2493,13 +2603,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="14"/>
-      <c r="B42" s="43"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="40"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="32"/>
-      <c r="H42" s="43"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="12"/>
       <c r="J42" s="36">
         <v>2</v>
@@ -2515,13 +2625,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="14"/>
-      <c r="B43" s="43"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="40"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43"/>
+      <c r="H43" s="54"/>
       <c r="I43" s="12"/>
       <c r="J43" s="36">
         <v>3</v>
@@ -2537,13 +2647,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="14"/>
-      <c r="B44" s="43"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="32"/>
-      <c r="D44" s="40"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="43"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="32"/>
-      <c r="H44" s="43"/>
+      <c r="H44" s="54"/>
       <c r="I44" s="12"/>
       <c r="J44" s="36" t="s">
         <v>34</v>
@@ -2559,13 +2669,13 @@
     </row>
     <row r="45" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="14"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="40"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="32"/>
-      <c r="H45" s="43"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="12"/>
       <c r="J45" s="37" t="s">
         <v>15</v>
@@ -2581,11 +2691,11 @@
     </row>
     <row r="46" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="14"/>
-      <c r="B46" s="43"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="40"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="43"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="32"/>
       <c r="H46" s="19"/>
       <c r="I46" s="20"/>
@@ -2599,11 +2709,11 @@
     </row>
     <row r="47" spans="1:16" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="14"/>
-      <c r="B47" s="43"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="40"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="44"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -2617,9 +2727,9 @@
     </row>
     <row r="48" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="14"/>
-      <c r="B48" s="43"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
@@ -2635,7 +2745,7 @@
     </row>
     <row r="49" spans="1:16" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="14"/>
-      <c r="B49" s="44"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -2688,4 +2798,1215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB41A6E-6EF6-497B-94A8-5C48A3EC6CFB}">
+  <dimension ref="A2:S56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="0.8984375" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="0.796875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="0.796875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="0.796875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="0.69921875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" customWidth="1"/>
+    <col min="14" max="15" width="0.796875" customWidth="1"/>
+    <col min="16" max="18" width="0.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="14"/>
+      <c r="B9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="14"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="14"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="53">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="14"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="14"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="14"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="53">
+        <v>0</v>
+      </c>
+      <c r="K16" s="61"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="64"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="64"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="14"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="56">
+        <v>1</v>
+      </c>
+      <c r="K20" s="67"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="14"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="64"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="14"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="64"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="14"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="14"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="14"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="56">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="14"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="14"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="14"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="53">
+        <v>0</v>
+      </c>
+      <c r="K30" s="61"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="14"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="64"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="14"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="64"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="14"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="14"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="56">
+        <v>1</v>
+      </c>
+      <c r="K34" s="67"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" s="14"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" s="64"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="14"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="64"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="14"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="14"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="14"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="14"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="56">
+        <v>2</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" s="14"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="J41" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="1:19" ht="5.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="14"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="14"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="14"/>
+    </row>
+    <row r="44" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="14"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="53">
+        <v>0</v>
+      </c>
+      <c r="K44" s="61"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" s="14"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" s="64"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="14"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" s="64"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="14"/>
+    </row>
+    <row r="47" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="14"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="14"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="56">
+        <v>1</v>
+      </c>
+      <c r="K48" s="67"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="14"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A49" s="14"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" s="64"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="14"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" s="64"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="14"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="14"/>
+    </row>
+    <row r="52" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="14"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="14"/>
+    </row>
+    <row r="53" spans="1:19" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="14"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="14"/>
+    </row>
+    <row r="54" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="14"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="14"/>
+    </row>
+    <row r="55" spans="1:19" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="14"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="14"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="B9:B55"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="D11:D54"/>
+    <mergeCell ref="F12:F25"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="H16:H23"/>
+    <mergeCell ref="F26:F39"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="F40:F53"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D472288D-32F7-4663-9B55-3CB0F18D003F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>